--- a/global_international_study.xlsx
+++ b/global_international_study.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\565_GPU_Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\565_GPU_Programming\GPU-FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7860"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7860" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="US Itnl Students (all)" sheetId="1" r:id="rId1"/>
-    <sheet name="US Itnl Students (19)" sheetId="3" r:id="rId2"/>
-    <sheet name="US Study Abroad (19)" sheetId="4" r:id="rId3"/>
+    <sheet name="China Itnl Students" sheetId="5" r:id="rId2"/>
+    <sheet name="Japan Itnl Students" sheetId="6" r:id="rId3"/>
+    <sheet name="US Itnl Students (19)" sheetId="3" r:id="rId4"/>
+    <sheet name="US Study Abroad (19)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Itnl Students (all)'!$A$1:$Y$224</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="226">
   <si>
     <t>Burundi</t>
   </si>
@@ -702,6 +704,15 @@
   <si>
     <t>British Virgin Islands</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
   </si>
 </sst>
 </file>
@@ -787,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +875,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,11 +1174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -18218,10 +18244,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="24">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="24">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4">
+        <v>62442</v>
+      </c>
+      <c r="C2" s="4">
+        <v>62975</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="4">
+        <v>23292</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19668</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17961</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16808</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14145</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13177</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4">
+        <v>13549</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13018</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4">
+        <v>13340</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12481</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10957</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9539</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9370</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9014</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8516</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7406</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8287</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7874</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="F11" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="24">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="7">
+        <v>86324</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7">
+        <v>16651</v>
+      </c>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4617</v>
+      </c>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4373</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2451</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2319</v>
+      </c>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2276</v>
+      </c>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2167</v>
+      </c>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2133</v>
+      </c>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19773,12 +20072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
